--- a/ArticleManage/main_working_folder/output_folders/Data 67 Chemically activated carbon production/Data67_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 67 Chemically activated carbon production/Data67_all_graphs_excel.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Default Dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 f3  0-1-0-1200 " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Default Dataset</t>
+    <t>f3</t>
   </si>
   <si>
     <t>X</t>
@@ -97,7 +97,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Default Dataset</a:t>
+              <a:t>Izoterma adsorpcji probki f3 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -156,12 +156,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Default Dataset'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 f3  0-1-0-1200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Default Dataset'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 f3  0-1-0-1200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -174,6 +174,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -243,6 +245,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1200"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 67 Chemically activated carbon production/Data67_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 67 Chemically activated carbon production/Data67_all_graphs_excel.xlsx
@@ -1271,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1292,493 +1292,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.06</v>
+        <v>0.0101</v>
       </c>
       <c r="B3" s="0">
-        <v>451.5922</v>
+        <v>340.4729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.0063</v>
       </c>
       <c r="B4" s="0">
-        <v>500.5354</v>
+        <v>323.783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.0047</v>
       </c>
       <c r="B5" s="0">
-        <v>519.3885</v>
+        <v>305.4242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.0298</v>
       </c>
       <c r="B6" s="0">
-        <v>537.9933</v>
+        <v>398.8873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.0177</v>
       </c>
       <c r="B7" s="0">
-        <v>555.2683</v>
+        <v>370.5146</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.0412</v>
       </c>
       <c r="B8" s="0">
-        <v>571.1517</v>
+        <v>422.2531</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.0495</v>
       </c>
       <c r="B9" s="0">
-        <v>585.93</v>
+        <v>437.274</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.0761</v>
       </c>
       <c r="B10" s="0">
-        <v>599.4531</v>
+        <v>472.3227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.1011</v>
       </c>
       <c r="B11" s="0">
-        <v>612.2372</v>
+        <v>500.6954</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.1519</v>
       </c>
       <c r="B12" s="0">
-        <v>624.2422</v>
+        <v>549.096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.1973</v>
       </c>
       <c r="B13" s="0">
-        <v>635.8146</v>
+        <v>584.1446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.2026</v>
       </c>
       <c r="B14" s="0">
-        <v>646.6042</v>
+        <v>587.4826</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.2496</v>
       </c>
       <c r="B15" s="0">
-        <v>656.7113</v>
+        <v>617.5243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.2997</v>
       </c>
       <c r="B16" s="0">
-        <v>666.646</v>
+        <v>645.8971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.3512</v>
       </c>
       <c r="B17" s="0">
-        <v>675.9593</v>
+        <v>672.6008</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.4004</v>
       </c>
       <c r="B18" s="0">
-        <v>685.3777</v>
+        <v>694.2976</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.4512</v>
       </c>
       <c r="B19" s="0">
-        <v>695.4381</v>
+        <v>717.6634</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.5012</v>
       </c>
       <c r="B20" s="0">
-        <v>706.1433</v>
+        <v>741.0292</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.48</v>
+        <v>0.5512</v>
       </c>
       <c r="B21" s="0">
-        <v>732.1432</v>
+        <v>764.395</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5</v>
+        <v>0.6013</v>
       </c>
       <c r="B22" s="0">
-        <v>739.829</v>
+        <v>787.7608</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.52</v>
+        <v>0.6498</v>
       </c>
       <c r="B23" s="0">
-        <v>748.7434</v>
+        <v>812.7955</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.54</v>
+        <v>0.6998</v>
       </c>
       <c r="B24" s="0">
-        <v>758.0591</v>
+        <v>841.1683</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.56</v>
+        <v>0.7513</v>
       </c>
       <c r="B25" s="0">
-        <v>767.4732</v>
+        <v>879.5549</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.58</v>
+        <v>0.8013</v>
       </c>
       <c r="B26" s="0">
-        <v>777.3663</v>
+        <v>921.2796</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6</v>
+        <v>0.8506</v>
       </c>
       <c r="B27" s="0">
-        <v>787.3134</v>
+        <v>976.3561</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.62</v>
+        <v>0.8999</v>
       </c>
       <c r="B28" s="0">
-        <v>797.4892</v>
+        <v>1034.7705</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.64</v>
+        <v>0.9522</v>
       </c>
       <c r="B29" s="0">
-        <v>808.4365</v>
+        <v>1089.847</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.66</v>
+        <v>0.9757</v>
       </c>
       <c r="B30" s="0">
-        <v>819.6637</v>
+        <v>1109.8748</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.68</v>
+        <v>0.9954</v>
       </c>
       <c r="B31" s="0">
-        <v>831.5318</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B32" s="0">
-        <v>843.9391</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B33" s="0">
-        <v>857.1558</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B34" s="0">
-        <v>871.725</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B35" s="0">
-        <v>887.0802</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B36" s="0">
-        <v>903.6789</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B37" s="0">
-        <v>921.561</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B38" s="0">
-        <v>941.5731</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B39" s="0">
-        <v>963.744</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B40" s="0">
-        <v>987.0559</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B41" s="0">
-        <v>1011.8799</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B42" s="0">
-        <v>1035.4804</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B43" s="0">
-        <v>1057.1262</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B44" s="0">
-        <v>1078.0327</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B45" s="0">
-        <v>1097.9548</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.4512</v>
-      </c>
-      <c r="B46" s="0">
-        <v>717.6634</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0101</v>
-      </c>
-      <c r="B47" s="0">
-        <v>340.4729</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0063</v>
-      </c>
-      <c r="B48" s="0">
-        <v>323.783</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0047</v>
-      </c>
-      <c r="B49" s="0">
-        <v>305.4242</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.8499</v>
-      </c>
-      <c r="B50" s="0">
-        <v>976.3561</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9962</v>
-      </c>
-      <c r="B51" s="0">
-        <v>1141.5855</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9765</v>
-      </c>
-      <c r="B52" s="0">
-        <v>1111.5438</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9514</v>
-      </c>
-      <c r="B53" s="0">
-        <v>1086.509</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.7513</v>
-      </c>
-      <c r="B54" s="0">
-        <v>879.5549</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.6498</v>
-      </c>
-      <c r="B55" s="0">
-        <v>812.7955</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.5505</v>
-      </c>
-      <c r="B56" s="0">
-        <v>762.726</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.3512</v>
-      </c>
-      <c r="B57" s="0">
-        <v>670.9318</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.2496</v>
-      </c>
-      <c r="B58" s="0">
-        <v>617.5243</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.0503</v>
-      </c>
-      <c r="B59" s="0">
-        <v>438.943</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.0298</v>
-      </c>
-      <c r="B60" s="0">
-        <v>398.8873</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.0177</v>
-      </c>
-      <c r="B61" s="0">
-        <v>370.5146</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.0412</v>
-      </c>
-      <c r="B62" s="0">
-        <v>422.2531</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>0.0753</v>
-      </c>
-      <c r="B63" s="0">
-        <v>472.3227</v>
-      </c>
-    </row>
-    <row r="64"/>
+        <v>1139.9166</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 67 Chemically activated carbon production/Data67_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 67 Chemically activated carbon production/Data67_all_graphs_excel.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 f3  0-1-0-1200 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 f3  0&amp;1&amp;0&amp;1200 " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -156,12 +156,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 f3  0-1-0-1200 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 f3  0&amp;1&amp;0&amp;1200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 f3  0-1-0-1200 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 f3  0&amp;1&amp;0&amp;1200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
